--- a/data-raw/WHO_countries_subregions.xlsx
+++ b/data-raw/WHO_countries_subregions.xlsx
@@ -1364,9 +1364,6 @@
     <t>KP</t>
   </si>
   <si>
-    <t>Dominican Republic  (the)</t>
-  </si>
-  <si>
     <t>DO</t>
   </si>
   <si>
@@ -1875,6 +1872,9 @@
   </si>
   <si>
     <t>SUB1</t>
+  </si>
+  <si>
+    <t>Dominican Republic (the)</t>
   </si>
 </sst>
 </file>
@@ -2304,19 +2304,19 @@
         <v>384</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>613</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2333,10 +2333,10 @@
         <v>88</v>
       </c>
       <c r="E2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2353,10 +2353,10 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2373,10 +2373,10 @@
         <v>107</v>
       </c>
       <c r="E4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2393,10 +2393,10 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2413,10 +2413,10 @@
         <v>107</v>
       </c>
       <c r="E6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F6" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2433,10 +2433,10 @@
         <v>44</v>
       </c>
       <c r="E7" t="s">
+        <v>592</v>
+      </c>
+      <c r="F7" t="s">
         <v>593</v>
-      </c>
-      <c r="F7" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2453,10 +2453,10 @@
         <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2473,10 +2473,10 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2493,10 +2493,10 @@
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F10" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2513,10 +2513,10 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F11" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2533,10 +2533,10 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F12" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2553,10 +2553,10 @@
         <v>44</v>
       </c>
       <c r="E13" t="s">
+        <v>592</v>
+      </c>
+      <c r="F13" t="s">
         <v>593</v>
-      </c>
-      <c r="F13" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -2573,10 +2573,10 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F14" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -2593,10 +2593,10 @@
         <v>122</v>
       </c>
       <c r="E15" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F15" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -2613,10 +2613,10 @@
         <v>44</v>
       </c>
       <c r="E16" t="s">
+        <v>592</v>
+      </c>
+      <c r="F16" t="s">
         <v>593</v>
-      </c>
-      <c r="F16" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -2633,10 +2633,10 @@
         <v>2</v>
       </c>
       <c r="E17" t="s">
+        <v>600</v>
+      </c>
+      <c r="F17" t="s">
         <v>601</v>
-      </c>
-      <c r="F17" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2653,10 +2653,10 @@
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2673,10 +2673,10 @@
         <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F19" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2693,10 +2693,10 @@
         <v>107</v>
       </c>
       <c r="E20" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F20" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2713,10 +2713,10 @@
         <v>122</v>
       </c>
       <c r="E21" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F21" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2733,10 +2733,10 @@
         <v>44</v>
       </c>
       <c r="E22" t="s">
+        <v>594</v>
+      </c>
+      <c r="F22" t="s">
         <v>595</v>
-      </c>
-      <c r="F22" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2753,10 +2753,10 @@
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F23" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2773,10 +2773,10 @@
         <v>107</v>
       </c>
       <c r="E24" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F24" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2793,10 +2793,10 @@
         <v>44</v>
       </c>
       <c r="E25" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F25" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2813,10 +2813,10 @@
         <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F26" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2833,10 +2833,10 @@
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F27" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -2853,10 +2853,10 @@
         <v>107</v>
       </c>
       <c r="E28" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F28" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2873,10 +2873,10 @@
         <v>107</v>
       </c>
       <c r="E29" t="s">
+        <v>589</v>
+      </c>
+      <c r="F29" t="s">
         <v>590</v>
-      </c>
-      <c r="F29" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2893,10 +2893,10 @@
         <v>107</v>
       </c>
       <c r="E30" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F30" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2913,10 +2913,10 @@
         <v>5</v>
       </c>
       <c r="E31" t="s">
+        <v>605</v>
+      </c>
+      <c r="F31" t="s">
         <v>606</v>
-      </c>
-      <c r="F31" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2933,10 +2933,10 @@
         <v>107</v>
       </c>
       <c r="E32" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F32" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2953,10 +2953,10 @@
         <v>44</v>
       </c>
       <c r="E33" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F33" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2973,10 +2973,10 @@
         <v>107</v>
       </c>
       <c r="E34" t="s">
+        <v>589</v>
+      </c>
+      <c r="F34" t="s">
         <v>590</v>
-      </c>
-      <c r="F34" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -2993,10 +2993,10 @@
         <v>107</v>
       </c>
       <c r="E35" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F35" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -3013,10 +3013,10 @@
         <v>44</v>
       </c>
       <c r="E36" t="s">
+        <v>592</v>
+      </c>
+      <c r="F36" t="s">
         <v>593</v>
-      </c>
-      <c r="F36" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -3033,10 +3033,10 @@
         <v>5</v>
       </c>
       <c r="E37" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F37" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -3053,10 +3053,10 @@
         <v>44</v>
       </c>
       <c r="E38" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F38" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -3073,10 +3073,10 @@
         <v>107</v>
       </c>
       <c r="E39" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F39" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -3093,10 +3093,10 @@
         <v>107</v>
       </c>
       <c r="E40" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F40" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -3113,10 +3113,10 @@
         <v>5</v>
       </c>
       <c r="E41" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F41" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -3133,10 +3133,10 @@
         <v>44</v>
       </c>
       <c r="E42" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F42" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -3153,10 +3153,10 @@
         <v>107</v>
       </c>
       <c r="E43" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F43" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -3173,10 +3173,10 @@
         <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F44" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -3193,10 +3193,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F45" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -3213,10 +3213,10 @@
         <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F46" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -3233,10 +3233,10 @@
         <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F47" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -3253,10 +3253,10 @@
         <v>122</v>
       </c>
       <c r="E48" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -3273,10 +3273,10 @@
         <v>107</v>
       </c>
       <c r="E49" t="s">
+        <v>589</v>
+      </c>
+      <c r="F49" t="s">
         <v>590</v>
-      </c>
-      <c r="F49" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -3293,10 +3293,10 @@
         <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F50" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -3313,10 +3313,10 @@
         <v>88</v>
       </c>
       <c r="E51" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F51" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -3333,30 +3333,30 @@
         <v>44</v>
       </c>
       <c r="E52" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F52" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>444</v>
+        <v>614</v>
       </c>
       <c r="B53" t="s">
         <v>221</v>
       </c>
       <c r="C53" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D53" t="s">
         <v>44</v>
       </c>
       <c r="E53" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F53" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -3367,16 +3367,16 @@
         <v>186</v>
       </c>
       <c r="C54" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D54" t="s">
         <v>44</v>
       </c>
       <c r="E54" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F54" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -3387,16 +3387,16 @@
         <v>243</v>
       </c>
       <c r="C55" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D55" t="s">
         <v>88</v>
       </c>
       <c r="E55" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F55" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -3407,16 +3407,16 @@
         <v>200</v>
       </c>
       <c r="C56" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D56" t="s">
         <v>44</v>
       </c>
       <c r="E56" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F56" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -3427,16 +3427,16 @@
         <v>344</v>
       </c>
       <c r="C57" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D57" t="s">
         <v>107</v>
       </c>
       <c r="E57" t="s">
+        <v>588</v>
+      </c>
+      <c r="F57" t="s">
         <v>589</v>
-      </c>
-      <c r="F57" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -3447,16 +3447,16 @@
         <v>282</v>
       </c>
       <c r="C58" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D58" t="s">
         <v>107</v>
       </c>
       <c r="E58" t="s">
+        <v>589</v>
+      </c>
+      <c r="F58" t="s">
         <v>590</v>
-      </c>
-      <c r="F58" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -3467,16 +3467,16 @@
         <v>92</v>
       </c>
       <c r="C59" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D59" t="s">
         <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F59" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -3487,13 +3487,13 @@
         <v>306</v>
       </c>
       <c r="C60" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D60" t="s">
         <v>107</v>
       </c>
       <c r="E60" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -3504,16 +3504,16 @@
         <v>338</v>
       </c>
       <c r="C61" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D61" t="s">
         <v>107</v>
       </c>
       <c r="E61" t="s">
+        <v>589</v>
+      </c>
+      <c r="F61" t="s">
         <v>590</v>
-      </c>
-      <c r="F61" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -3524,16 +3524,16 @@
         <v>150</v>
       </c>
       <c r="C62" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D62" t="s">
         <v>5</v>
       </c>
       <c r="E62" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F62" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -3544,16 +3544,16 @@
         <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D63" t="s">
         <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F63" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -3564,16 +3564,16 @@
         <v>21</v>
       </c>
       <c r="C64" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D64" t="s">
         <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F64" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -3584,36 +3584,36 @@
         <v>278</v>
       </c>
       <c r="C65" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D65" t="s">
         <v>107</v>
       </c>
       <c r="E65" t="s">
+        <v>588</v>
+      </c>
+      <c r="F65" t="s">
         <v>589</v>
-      </c>
-      <c r="F65" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B66" t="s">
         <v>322</v>
       </c>
       <c r="C66" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D66" t="s">
         <v>107</v>
       </c>
       <c r="E66" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F66" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -3624,16 +3624,16 @@
         <v>210</v>
       </c>
       <c r="C67" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D67" t="s">
         <v>2</v>
       </c>
       <c r="E67" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F67" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -3644,16 +3644,16 @@
         <v>19</v>
       </c>
       <c r="C68" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D68" t="s">
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F68" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -3664,16 +3664,16 @@
         <v>302</v>
       </c>
       <c r="C69" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D69" t="s">
         <v>107</v>
       </c>
       <c r="E69" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F69" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -3684,16 +3684,16 @@
         <v>52</v>
       </c>
       <c r="C70" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D70" t="s">
         <v>2</v>
       </c>
       <c r="E70" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F70" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -3704,16 +3704,16 @@
         <v>115</v>
       </c>
       <c r="C71" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D71" t="s">
         <v>44</v>
       </c>
       <c r="E71" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F71" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -3724,16 +3724,16 @@
         <v>247</v>
       </c>
       <c r="C72" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D72" t="s">
         <v>44</v>
       </c>
       <c r="E72" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F72" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -3744,16 +3744,16 @@
         <v>351</v>
       </c>
       <c r="C73" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D73" t="s">
         <v>107</v>
       </c>
       <c r="E73" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F73" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -3764,16 +3764,16 @@
         <v>355</v>
       </c>
       <c r="C74" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D74" t="s">
         <v>107</v>
       </c>
       <c r="E74" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F74" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -3784,16 +3784,16 @@
         <v>241</v>
       </c>
       <c r="C75" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D75" t="s">
         <v>44</v>
       </c>
       <c r="E75" t="s">
+        <v>592</v>
+      </c>
+      <c r="F75" t="s">
         <v>593</v>
-      </c>
-      <c r="F75" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -3804,16 +3804,16 @@
         <v>308</v>
       </c>
       <c r="C76" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D76" t="s">
         <v>44</v>
       </c>
       <c r="E76" t="s">
+        <v>594</v>
+      </c>
+      <c r="F76" t="s">
         <v>595</v>
-      </c>
-      <c r="F76" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -3824,16 +3824,16 @@
         <v>208</v>
       </c>
       <c r="C77" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D77" t="s">
         <v>44</v>
       </c>
       <c r="E77" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F77" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -3844,16 +3844,16 @@
         <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D78" t="s">
         <v>2</v>
       </c>
       <c r="E78" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F78" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -3864,16 +3864,16 @@
         <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D79" t="s">
         <v>2</v>
       </c>
       <c r="E79" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F79" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -3884,16 +3884,16 @@
         <v>290</v>
       </c>
       <c r="C80" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D80" t="s">
         <v>122</v>
       </c>
       <c r="E80" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F80" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -3904,16 +3904,16 @@
         <v>251</v>
       </c>
       <c r="C81" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D81" t="s">
         <v>122</v>
       </c>
       <c r="E81" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F81" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -3924,16 +3924,16 @@
         <v>204</v>
       </c>
       <c r="C82" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D82" t="s">
         <v>88</v>
       </c>
       <c r="E82" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F82" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -3944,16 +3944,16 @@
         <v>239</v>
       </c>
       <c r="C83" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D83" t="s">
         <v>88</v>
       </c>
       <c r="E83" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F83" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -3964,16 +3964,16 @@
         <v>56</v>
       </c>
       <c r="C84" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D84" t="s">
         <v>2</v>
       </c>
       <c r="E84" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F84" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -3984,16 +3984,16 @@
         <v>54</v>
       </c>
       <c r="C85" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D85" t="s">
         <v>2</v>
       </c>
       <c r="E85" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F85" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -4004,16 +4004,16 @@
         <v>35</v>
       </c>
       <c r="C86" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D86" t="s">
         <v>2</v>
       </c>
       <c r="E86" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F86" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -4024,16 +4024,16 @@
         <v>152</v>
       </c>
       <c r="C87" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D87" t="s">
         <v>44</v>
       </c>
       <c r="E87" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F87" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -4044,16 +4044,16 @@
         <v>11</v>
       </c>
       <c r="C88" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D88" t="s">
         <v>5</v>
       </c>
       <c r="E88" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F88" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -4064,16 +4064,16 @@
         <v>170</v>
       </c>
       <c r="C89" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D89" t="s">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F89" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -4084,16 +4084,16 @@
         <v>237</v>
       </c>
       <c r="C90" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D90" t="s">
         <v>2</v>
       </c>
       <c r="E90" t="s">
+        <v>600</v>
+      </c>
+      <c r="F90" t="s">
         <v>601</v>
-      </c>
-      <c r="F90" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -4104,16 +4104,16 @@
         <v>298</v>
       </c>
       <c r="C91" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D91" t="s">
         <v>107</v>
       </c>
       <c r="E91" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F91" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -4124,16 +4124,16 @@
         <v>258</v>
       </c>
       <c r="C92" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D92" t="s">
         <v>5</v>
       </c>
       <c r="E92" t="s">
+        <v>605</v>
+      </c>
+      <c r="F92" t="s">
         <v>606</v>
-      </c>
-      <c r="F92" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -4144,16 +4144,16 @@
         <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D93" t="s">
         <v>88</v>
       </c>
       <c r="E93" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F93" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -4164,16 +4164,16 @@
         <v>245</v>
       </c>
       <c r="C94" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D94" t="s">
         <v>2</v>
       </c>
       <c r="E94" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F94" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -4184,16 +4184,16 @@
         <v>316</v>
       </c>
       <c r="C95" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D95" t="s">
         <v>5</v>
       </c>
       <c r="E95" t="s">
+        <v>605</v>
+      </c>
+      <c r="F95" t="s">
         <v>606</v>
-      </c>
-      <c r="F95" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -4204,16 +4204,16 @@
         <v>111</v>
       </c>
       <c r="C96" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D96" t="s">
         <v>2</v>
       </c>
       <c r="E96" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F96" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -4224,16 +4224,16 @@
         <v>144</v>
       </c>
       <c r="C97" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D97" t="s">
         <v>88</v>
       </c>
       <c r="E97" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F97" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -4244,16 +4244,16 @@
         <v>304</v>
       </c>
       <c r="C98" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D98" t="s">
         <v>107</v>
       </c>
       <c r="E98" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F98" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -4264,16 +4264,16 @@
         <v>371</v>
       </c>
       <c r="C99" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D99" t="s">
         <v>107</v>
       </c>
       <c r="E99" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F99" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -4284,16 +4284,16 @@
         <v>178</v>
       </c>
       <c r="C100" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D100" t="s">
         <v>88</v>
       </c>
       <c r="E100" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F100" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -4304,16 +4304,16 @@
         <v>85</v>
       </c>
       <c r="C101" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D101" t="s">
         <v>2</v>
       </c>
       <c r="E101" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F101" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -4324,16 +4324,16 @@
         <v>13</v>
       </c>
       <c r="C102" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D102" t="s">
         <v>2</v>
       </c>
       <c r="E102" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F102" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -4344,16 +4344,16 @@
         <v>312</v>
       </c>
       <c r="C103" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D103" t="s">
         <v>107</v>
       </c>
       <c r="E103" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F103" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -4364,16 +4364,16 @@
         <v>361</v>
       </c>
       <c r="C104" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D104" t="s">
         <v>107</v>
       </c>
       <c r="E104" t="s">
+        <v>589</v>
+      </c>
+      <c r="F104" t="s">
         <v>590</v>
-      </c>
-      <c r="F104" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -4384,16 +4384,16 @@
         <v>83</v>
       </c>
       <c r="C105" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D105" t="s">
         <v>5</v>
       </c>
       <c r="E105" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F105" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -4404,16 +4404,16 @@
         <v>231</v>
       </c>
       <c r="C106" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D106" t="s">
         <v>122</v>
       </c>
       <c r="E106" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F106" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -4424,16 +4424,16 @@
         <v>367</v>
       </c>
       <c r="C107" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D107" t="s">
         <v>107</v>
       </c>
       <c r="E107" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F107" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -4444,16 +4444,16 @@
         <v>63</v>
       </c>
       <c r="C108" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D108" t="s">
         <v>2</v>
       </c>
       <c r="E108" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F108" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -4464,16 +4464,16 @@
         <v>225</v>
       </c>
       <c r="C109" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D109" t="s">
         <v>5</v>
       </c>
       <c r="E109" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F109" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -4484,16 +4484,16 @@
         <v>318</v>
       </c>
       <c r="C110" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D110" t="s">
         <v>107</v>
       </c>
       <c r="E110" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F110" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -4504,16 +4504,16 @@
         <v>142</v>
       </c>
       <c r="C111" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D111" t="s">
         <v>107</v>
       </c>
       <c r="E111" t="s">
+        <v>588</v>
+      </c>
+      <c r="F111" t="s">
         <v>589</v>
-      </c>
-      <c r="F111" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -4524,16 +4524,16 @@
         <v>182</v>
       </c>
       <c r="C112" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D112" t="s">
         <v>44</v>
       </c>
       <c r="E112" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F112" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -4544,16 +4544,16 @@
         <v>212</v>
       </c>
       <c r="C113" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D113" t="s">
         <v>5</v>
       </c>
       <c r="E113" t="s">
+        <v>605</v>
+      </c>
+      <c r="F113" t="s">
         <v>606</v>
-      </c>
-      <c r="F113" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -4564,16 +4564,16 @@
         <v>17</v>
       </c>
       <c r="C114" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D114" t="s">
         <v>2</v>
       </c>
       <c r="E114" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F114" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -4584,16 +4584,16 @@
         <v>256</v>
       </c>
       <c r="C115" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D115" t="s">
         <v>5</v>
       </c>
       <c r="E115" t="s">
+        <v>605</v>
+      </c>
+      <c r="F115" t="s">
         <v>606</v>
-      </c>
-      <c r="F115" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -4604,16 +4604,16 @@
         <v>379</v>
       </c>
       <c r="C116" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D116" t="s">
         <v>2</v>
       </c>
       <c r="E116" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F116" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -4624,16 +4624,16 @@
         <v>249</v>
       </c>
       <c r="C117" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D117" t="s">
         <v>88</v>
       </c>
       <c r="E117" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F117" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -4644,16 +4644,16 @@
         <v>357</v>
       </c>
       <c r="C118" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D118" t="s">
         <v>107</v>
       </c>
       <c r="E118" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F118" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -4664,16 +4664,16 @@
         <v>288</v>
       </c>
       <c r="C119" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D119" t="s">
         <v>122</v>
       </c>
       <c r="E119" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F119" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -4690,10 +4690,10 @@
         <v>107</v>
       </c>
       <c r="E120" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F120" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -4704,16 +4704,16 @@
         <v>233</v>
       </c>
       <c r="C121" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D121" t="s">
         <v>5</v>
       </c>
       <c r="E121" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F121" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -4724,16 +4724,16 @@
         <v>276</v>
       </c>
       <c r="C122" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D122" t="s">
         <v>122</v>
       </c>
       <c r="E122" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F122" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -4744,16 +4744,16 @@
         <v>46</v>
       </c>
       <c r="C123" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D123" t="s">
         <v>2</v>
       </c>
       <c r="E123" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F123" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -4764,16 +4764,16 @@
         <v>58</v>
       </c>
       <c r="C124" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D124" t="s">
         <v>5</v>
       </c>
       <c r="E124" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F124" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -4784,16 +4784,16 @@
         <v>218</v>
       </c>
       <c r="C125" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D125" t="s">
         <v>44</v>
       </c>
       <c r="E125" t="s">
+        <v>594</v>
+      </c>
+      <c r="F125" t="s">
         <v>595</v>
-      </c>
-      <c r="F125" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -4804,16 +4804,16 @@
         <v>377</v>
       </c>
       <c r="C126" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D126" t="s">
         <v>107</v>
       </c>
       <c r="E126" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F126" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -4824,16 +4824,16 @@
         <v>365</v>
       </c>
       <c r="C127" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D127" t="s">
         <v>107</v>
       </c>
       <c r="E127" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F127" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -4844,16 +4844,16 @@
         <v>388</v>
       </c>
       <c r="C128" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D128" t="s">
         <v>5</v>
       </c>
       <c r="E128" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F128" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="129" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4864,16 +4864,16 @@
         <v>126</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -4884,16 +4884,16 @@
         <v>15</v>
       </c>
       <c r="C130" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D130" t="s">
         <v>2</v>
       </c>
       <c r="E130" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F130" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -4904,16 +4904,16 @@
         <v>130</v>
       </c>
       <c r="C131" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D131" t="s">
         <v>88</v>
       </c>
       <c r="E131" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F131" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -4924,16 +4924,16 @@
         <v>314</v>
       </c>
       <c r="C132" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D132" t="s">
         <v>88</v>
       </c>
       <c r="E132" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F132" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -4944,16 +4944,16 @@
         <v>180</v>
       </c>
       <c r="C133" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D133" t="s">
         <v>5</v>
       </c>
       <c r="E133" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F133" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -4964,16 +4964,16 @@
         <v>168</v>
       </c>
       <c r="C134" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D134" t="s">
         <v>44</v>
       </c>
       <c r="E134" t="s">
+        <v>592</v>
+      </c>
+      <c r="F134" t="s">
         <v>593</v>
-      </c>
-      <c r="F134" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -4984,16 +4984,16 @@
         <v>262</v>
       </c>
       <c r="C135" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D135" t="s">
         <v>5</v>
       </c>
       <c r="E135" t="s">
+        <v>605</v>
+      </c>
+      <c r="F135" t="s">
         <v>606</v>
-      </c>
-      <c r="F135" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -5004,16 +5004,16 @@
         <v>198</v>
       </c>
       <c r="C136" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D136" t="s">
         <v>44</v>
       </c>
       <c r="E136" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F136" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -5024,16 +5024,16 @@
         <v>223</v>
       </c>
       <c r="C137" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D137" t="s">
         <v>44</v>
       </c>
       <c r="E137" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F137" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -5044,16 +5044,16 @@
         <v>206</v>
       </c>
       <c r="C138" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D138" t="s">
         <v>5</v>
       </c>
       <c r="E138" t="s">
+        <v>605</v>
+      </c>
+      <c r="F138" t="s">
         <v>606</v>
-      </c>
-      <c r="F138" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -5064,16 +5064,16 @@
         <v>73</v>
       </c>
       <c r="C139" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D139" t="s">
         <v>2</v>
       </c>
       <c r="E139" t="s">
+        <v>599</v>
+      </c>
+      <c r="F139" t="s">
         <v>600</v>
-      </c>
-      <c r="F139" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -5084,16 +5084,16 @@
         <v>60</v>
       </c>
       <c r="C140" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D140" t="s">
         <v>2</v>
       </c>
       <c r="E140" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F140" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -5104,36 +5104,36 @@
         <v>96</v>
       </c>
       <c r="C141" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D141" t="s">
         <v>88</v>
       </c>
       <c r="E141" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F141" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B142" t="s">
         <v>61</v>
       </c>
       <c r="C142" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D142" t="s">
         <v>5</v>
       </c>
       <c r="E142" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F142" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -5144,16 +5144,16 @@
         <v>196</v>
       </c>
       <c r="C143" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D143" t="s">
         <v>2</v>
       </c>
       <c r="E143" t="s">
+        <v>600</v>
+      </c>
+      <c r="F143" t="s">
         <v>601</v>
-      </c>
-      <c r="F143" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -5164,16 +5164,16 @@
         <v>154</v>
       </c>
       <c r="C144" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D144" t="s">
         <v>2</v>
       </c>
       <c r="E144" t="s">
+        <v>599</v>
+      </c>
+      <c r="F144" t="s">
         <v>600</v>
-      </c>
-      <c r="F144" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -5184,16 +5184,16 @@
         <v>138</v>
       </c>
       <c r="C145" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D145" t="s">
         <v>2</v>
       </c>
       <c r="E145" t="s">
+        <v>600</v>
+      </c>
+      <c r="F145" t="s">
         <v>601</v>
-      </c>
-      <c r="F145" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -5204,16 +5204,16 @@
         <v>369</v>
       </c>
       <c r="C146" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D146" t="s">
         <v>107</v>
       </c>
       <c r="E146" t="s">
+        <v>589</v>
+      </c>
+      <c r="F146" t="s">
         <v>590</v>
-      </c>
-      <c r="F146" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -5224,16 +5224,16 @@
         <v>164</v>
       </c>
       <c r="C147" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D147" t="s">
         <v>44</v>
       </c>
       <c r="E147" t="s">
+        <v>592</v>
+      </c>
+      <c r="F147" t="s">
         <v>593</v>
-      </c>
-      <c r="F147" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -5244,16 +5244,16 @@
         <v>134</v>
       </c>
       <c r="C148" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D148" t="s">
         <v>44</v>
       </c>
       <c r="E148" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F148" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -5264,16 +5264,16 @@
         <v>148</v>
       </c>
       <c r="C149" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D149" t="s">
         <v>44</v>
       </c>
       <c r="E149" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F149" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -5284,16 +5284,16 @@
         <v>146</v>
       </c>
       <c r="C150" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D150" t="s">
         <v>5</v>
       </c>
       <c r="E150" t="s">
+        <v>605</v>
+      </c>
+      <c r="F150" t="s">
         <v>606</v>
-      </c>
-      <c r="F150" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -5304,16 +5304,16 @@
         <v>39</v>
       </c>
       <c r="C151" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D151" t="s">
         <v>2</v>
       </c>
       <c r="E151" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F151" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -5324,16 +5324,16 @@
         <v>280</v>
       </c>
       <c r="C152" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D152" t="s">
         <v>107</v>
       </c>
       <c r="E152" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F152" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -5344,16 +5344,16 @@
         <v>158</v>
       </c>
       <c r="C153" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D153" t="s">
         <v>88</v>
       </c>
       <c r="E153" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F153" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -5364,16 +5364,16 @@
         <v>328</v>
       </c>
       <c r="C154" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D154" t="s">
         <v>107</v>
       </c>
       <c r="E154" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F154" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -5384,16 +5384,16 @@
         <v>100</v>
       </c>
       <c r="C155" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D155" t="s">
         <v>2</v>
       </c>
       <c r="E155" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F155" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -5404,16 +5404,16 @@
         <v>106</v>
       </c>
       <c r="C156" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D156" t="s">
         <v>107</v>
       </c>
       <c r="E156" t="s">
+        <v>588</v>
+      </c>
+      <c r="F156" t="s">
         <v>589</v>
-      </c>
-      <c r="F156" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -5424,16 +5424,16 @@
         <v>375</v>
       </c>
       <c r="C157" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D157" t="s">
         <v>107</v>
       </c>
       <c r="E157" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F157" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -5444,16 +5444,16 @@
         <v>4</v>
       </c>
       <c r="C158" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D158" t="s">
         <v>5</v>
       </c>
       <c r="E158" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F158" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -5464,16 +5464,16 @@
         <v>75</v>
       </c>
       <c r="C159" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D159" t="s">
         <v>2</v>
       </c>
       <c r="E159" t="s">
+        <v>599</v>
+      </c>
+      <c r="F159" t="s">
         <v>600</v>
-      </c>
-      <c r="F159" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -5484,16 +5484,16 @@
         <v>33</v>
       </c>
       <c r="C160" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D160" t="s">
         <v>2</v>
       </c>
       <c r="E160" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F160" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -5504,16 +5504,16 @@
         <v>184</v>
       </c>
       <c r="C161" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D161" t="s">
         <v>5</v>
       </c>
       <c r="E161" t="s">
+        <v>605</v>
+      </c>
+      <c r="F161" t="s">
         <v>606</v>
-      </c>
-      <c r="F161" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -5524,16 +5524,16 @@
         <v>353</v>
       </c>
       <c r="C162" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D162" t="s">
         <v>88</v>
       </c>
       <c r="E162" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F162" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -5544,16 +5544,16 @@
         <v>260</v>
       </c>
       <c r="C163" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D163" t="s">
         <v>107</v>
       </c>
       <c r="E163" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F163" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -5564,16 +5564,16 @@
         <v>381</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -5584,16 +5584,16 @@
         <v>25</v>
       </c>
       <c r="C165" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D165" t="s">
         <v>2</v>
       </c>
       <c r="E165" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F165" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -5604,16 +5604,16 @@
         <v>121</v>
       </c>
       <c r="C166" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D166" t="s">
         <v>122</v>
       </c>
       <c r="E166" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F166" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -5624,16 +5624,16 @@
         <v>310</v>
       </c>
       <c r="C167" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D167" t="s">
         <v>88</v>
       </c>
       <c r="E167" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F167" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -5644,16 +5644,16 @@
         <v>194</v>
       </c>
       <c r="C168" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D168" t="s">
         <v>44</v>
       </c>
       <c r="E168" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F168" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -5664,16 +5664,16 @@
         <v>1</v>
       </c>
       <c r="C169" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D169" t="s">
         <v>2</v>
       </c>
       <c r="E169" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F169" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -5684,16 +5684,16 @@
         <v>27</v>
       </c>
       <c r="C170" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D170" t="s">
         <v>2</v>
       </c>
       <c r="E170" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F170" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -5704,16 +5704,16 @@
         <v>160</v>
       </c>
       <c r="C171" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D171" t="s">
         <v>88</v>
       </c>
       <c r="E171" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F171" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -5724,16 +5724,16 @@
         <v>284</v>
       </c>
       <c r="C172" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D172" t="s">
         <v>2</v>
       </c>
       <c r="E172" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F172" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -5744,16 +5744,16 @@
         <v>156</v>
       </c>
       <c r="C173" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D173" t="s">
         <v>122</v>
       </c>
       <c r="E173" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F173" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -5764,16 +5764,16 @@
         <v>383</v>
       </c>
       <c r="C174" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D174" t="s">
         <v>122</v>
       </c>
       <c r="E174" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F174" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -5784,16 +5784,16 @@
         <v>324</v>
       </c>
       <c r="C175" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D175" t="s">
         <v>107</v>
       </c>
       <c r="E175" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F175" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -5804,16 +5804,16 @@
         <v>124</v>
       </c>
       <c r="C176" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D176" t="s">
         <v>5</v>
       </c>
       <c r="E176" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F176" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -5824,16 +5824,16 @@
         <v>172</v>
       </c>
       <c r="C177" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D177" t="s">
         <v>44</v>
       </c>
       <c r="E177" t="s">
+        <v>592</v>
+      </c>
+      <c r="F177" t="s">
         <v>593</v>
-      </c>
-      <c r="F177" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -5844,16 +5844,16 @@
         <v>192</v>
       </c>
       <c r="C178" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D178" t="s">
         <v>88</v>
       </c>
       <c r="E178" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F178" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -5864,16 +5864,16 @@
         <v>220</v>
       </c>
       <c r="C179" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D179" t="s">
         <v>2</v>
       </c>
       <c r="E179" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F179" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -5884,16 +5884,16 @@
         <v>264</v>
       </c>
       <c r="C180" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D180" t="s">
         <v>2</v>
       </c>
       <c r="E180" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F180" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -5904,16 +5904,16 @@
         <v>229</v>
       </c>
       <c r="C181" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D181" t="s">
         <v>5</v>
       </c>
       <c r="E181" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F181" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -5924,16 +5924,16 @@
         <v>340</v>
       </c>
       <c r="C182" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D182" t="s">
         <v>107</v>
       </c>
       <c r="E182" t="s">
+        <v>589</v>
+      </c>
+      <c r="F182" t="s">
         <v>590</v>
-      </c>
-      <c r="F182" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -5944,16 +5944,16 @@
         <v>136</v>
       </c>
       <c r="C183" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D183" t="s">
         <v>2</v>
       </c>
       <c r="E183" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F183" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -5964,16 +5964,16 @@
         <v>87</v>
       </c>
       <c r="C184" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D184" t="s">
         <v>88</v>
       </c>
       <c r="E184" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F184" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -5984,16 +5984,16 @@
         <v>48</v>
       </c>
       <c r="C185" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D185" t="s">
         <v>2</v>
       </c>
       <c r="E185" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F185" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="186" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6004,16 +6004,16 @@
         <v>330</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D186" s="3" t="s">
         <v>107</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F186" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -6024,16 +6024,16 @@
         <v>69</v>
       </c>
       <c r="C187" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D187" t="s">
         <v>44</v>
       </c>
       <c r="E187" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F187" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -6044,16 +6044,16 @@
         <v>128</v>
       </c>
       <c r="C188" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D188" t="s">
         <v>44</v>
       </c>
       <c r="E188" t="s">
+        <v>592</v>
+      </c>
+      <c r="F188" t="s">
         <v>593</v>
-      </c>
-      <c r="F188" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -6064,16 +6064,16 @@
         <v>253</v>
       </c>
       <c r="C189" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D189" t="s">
         <v>2</v>
       </c>
       <c r="E189" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F189" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -6084,16 +6084,16 @@
         <v>176</v>
       </c>
       <c r="C190" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D190" t="s">
         <v>5</v>
       </c>
       <c r="E190" t="s">
+        <v>605</v>
+      </c>
+      <c r="F190" t="s">
         <v>606</v>
-      </c>
-      <c r="F190" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -6104,16 +6104,16 @@
         <v>235</v>
       </c>
       <c r="C191" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D191" t="s">
         <v>44</v>
       </c>
       <c r="E191" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F191" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -6124,16 +6124,16 @@
         <v>188</v>
       </c>
       <c r="C192" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D192" t="s">
         <v>5</v>
       </c>
       <c r="E192" t="s">
+        <v>605</v>
+      </c>
+      <c r="F192" t="s">
         <v>606</v>
-      </c>
-      <c r="F192" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -6144,16 +6144,16 @@
         <v>294</v>
       </c>
       <c r="C193" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D193" t="s">
         <v>88</v>
       </c>
       <c r="E193" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F193" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -6164,16 +6164,16 @@
         <v>346</v>
       </c>
       <c r="C194" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D194" t="s">
         <v>107</v>
       </c>
       <c r="E194" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F194" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -6184,16 +6184,16 @@
         <v>292</v>
       </c>
       <c r="C195" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D195" t="s">
         <v>107</v>
       </c>
       <c r="E195" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F195" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/WHO_countries_subregions.xlsx
+++ b/data-raw/WHO_countries_subregions.xlsx
@@ -1,36 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BrDe394\GitHub\FERG2\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\sciensano.be\fs\1140_DATA\Health information\GBADs\05_ANTHRAX\GitHub\FERG2\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2679CF26-ECC7-4BB0-B0C0-707BDB8E6CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21870" yWindow="4170" windowWidth="17625" windowHeight="15645"/>
+    <workbookView xWindow="29100" yWindow="435" windowWidth="23250" windowHeight="12690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="615">
   <si>
     <t>Sweden</t>
   </si>
@@ -1880,7 +1870,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1950,7 +1940,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="TableStyleLight1" xfId="1"/>
+    <cellStyle name="TableStyleLight1" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1985,18 +1975,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F195" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:F195"/>
-  <sortState ref="A2:D195">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F195" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:F195" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D195">
     <sortCondition ref="A1:A195"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="COUNTRY"/>
-    <tableColumn id="2" name="ISO3"/>
-    <tableColumn id="3" name="ISO2"/>
-    <tableColumn id="4" name="REG"/>
-    <tableColumn id="5" name="SUB2"/>
-    <tableColumn id="6" name="SUB1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="COUNTRY"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ISO3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="ISO2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="REG"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="SUB2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="SUB1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2078,6 +2068,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2113,6 +2120,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2288,18 +2312,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="42.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>384</v>
       </c>
@@ -2319,7 +2345,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>325</v>
       </c>
@@ -2339,7 +2365,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>173</v>
       </c>
@@ -2359,7 +2385,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>215</v>
       </c>
@@ -2379,7 +2405,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -2399,7 +2425,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>372</v>
       </c>
@@ -2419,7 +2445,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>112</v>
       </c>
@@ -2439,7 +2465,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>139</v>
       </c>
@@ -2459,7 +2485,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>189</v>
       </c>
@@ -2479,7 +2505,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -2499,7 +2525,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -2519,7 +2545,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>269</v>
       </c>
@@ -2539,7 +2565,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>116</v>
       </c>
@@ -2559,7 +2585,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>97</v>
       </c>
@@ -2579,7 +2605,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>285</v>
       </c>
@@ -2599,7 +2625,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>108</v>
       </c>
@@ -2619,7 +2645,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>103</v>
       </c>
@@ -2639,7 +2665,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -2659,7 +2685,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>161</v>
       </c>
@@ -2679,7 +2705,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>331</v>
       </c>
@@ -2699,7 +2725,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>273</v>
       </c>
@@ -2719,7 +2745,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>271</v>
       </c>
@@ -2739,7 +2765,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>76</v>
       </c>
@@ -2759,7 +2785,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>267</v>
       </c>
@@ -2779,7 +2805,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>201</v>
       </c>
@@ -2799,7 +2825,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>78</v>
       </c>
@@ -2819,7 +2845,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>131</v>
       </c>
@@ -2839,7 +2865,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>358</v>
       </c>
@@ -2859,7 +2885,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>341</v>
       </c>
@@ -2879,7 +2905,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>226</v>
       </c>
@@ -2899,7 +2925,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>319</v>
       </c>
@@ -2919,7 +2945,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>335</v>
       </c>
@@ -2939,7 +2965,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -2959,7 +2985,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>348</v>
       </c>
@@ -2979,7 +3005,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>362</v>
       </c>
@@ -2999,7 +3025,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>89</v>
       </c>
@@ -3019,7 +3045,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>213</v>
       </c>
@@ -3039,7 +3065,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>165</v>
       </c>
@@ -3059,7 +3085,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>295</v>
       </c>
@@ -3079,7 +3105,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>430</v>
       </c>
@@ -3099,7 +3125,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>385</v>
       </c>
@@ -3119,7 +3145,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>101</v>
       </c>
@@ -3139,7 +3165,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>333</v>
       </c>
@@ -3159,7 +3185,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>66</v>
       </c>
@@ -3179,7 +3205,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>70</v>
       </c>
@@ -3199,7 +3225,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -3219,7 +3245,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>28</v>
       </c>
@@ -3239,7 +3265,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>442</v>
       </c>
@@ -3259,7 +3285,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>429</v>
       </c>
@@ -3279,7 +3305,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>30</v>
       </c>
@@ -3299,7 +3325,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>299</v>
       </c>
@@ -3319,7 +3345,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>118</v>
       </c>
@@ -3339,7 +3365,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>614</v>
       </c>
@@ -3359,7 +3385,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>185</v>
       </c>
@@ -3379,7 +3405,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>242</v>
       </c>
@@ -3399,7 +3425,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>199</v>
       </c>
@@ -3419,7 +3445,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>343</v>
       </c>
@@ -3439,7 +3465,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>281</v>
       </c>
@@ -3459,7 +3485,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>91</v>
       </c>
@@ -3479,7 +3505,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>305</v>
       </c>
@@ -3495,8 +3521,11 @@
       <c r="E60" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F60" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>337</v>
       </c>
@@ -3516,7 +3545,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>149</v>
       </c>
@@ -3536,7 +3565,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -3556,7 +3585,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>20</v>
       </c>
@@ -3576,7 +3605,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>277</v>
       </c>
@@ -3596,7 +3625,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>461</v>
       </c>
@@ -3616,7 +3645,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>209</v>
       </c>
@@ -3636,7 +3665,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>18</v>
       </c>
@@ -3656,7 +3685,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>301</v>
       </c>
@@ -3676,7 +3705,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>51</v>
       </c>
@@ -3696,7 +3725,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>114</v>
       </c>
@@ -3716,7 +3745,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>246</v>
       </c>
@@ -3736,7 +3765,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>350</v>
       </c>
@@ -3756,7 +3785,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>354</v>
       </c>
@@ -3776,7 +3805,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>240</v>
       </c>
@@ -3796,7 +3825,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>307</v>
       </c>
@@ -3816,7 +3845,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>207</v>
       </c>
@@ -3836,7 +3865,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>80</v>
       </c>
@@ -3856,7 +3885,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>6</v>
       </c>
@@ -3876,7 +3905,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>289</v>
       </c>
@@ -3896,7 +3925,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>250</v>
       </c>
@@ -3916,7 +3945,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>203</v>
       </c>
@@ -3936,7 +3965,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>238</v>
       </c>
@@ -3956,7 +3985,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>55</v>
       </c>
@@ -3976,7 +4005,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>53</v>
       </c>
@@ -3996,7 +4025,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>34</v>
       </c>
@@ -4016,7 +4045,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>151</v>
       </c>
@@ -4036,7 +4065,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>10</v>
       </c>
@@ -4056,7 +4085,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>169</v>
       </c>
@@ -4076,7 +4105,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>236</v>
       </c>
@@ -4096,7 +4125,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>297</v>
       </c>
@@ -4116,7 +4145,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>257</v>
       </c>
@@ -4136,7 +4165,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>93</v>
       </c>
@@ -4156,7 +4185,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>244</v>
       </c>
@@ -4176,7 +4205,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>315</v>
       </c>
@@ -4196,7 +4225,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>110</v>
       </c>
@@ -4216,7 +4245,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>143</v>
       </c>
@@ -4236,7 +4265,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>303</v>
       </c>
@@ -4256,7 +4285,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>370</v>
       </c>
@@ -4276,7 +4305,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>177</v>
       </c>
@@ -4296,7 +4325,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>84</v>
       </c>
@@ -4316,7 +4345,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>12</v>
       </c>
@@ -4336,7 +4365,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>311</v>
       </c>
@@ -4356,7 +4385,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>360</v>
       </c>
@@ -4376,7 +4405,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>82</v>
       </c>
@@ -4396,7 +4425,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>230</v>
       </c>
@@ -4416,7 +4445,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>366</v>
       </c>
@@ -4436,7 +4465,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>62</v>
       </c>
@@ -4456,7 +4485,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>224</v>
       </c>
@@ -4476,7 +4505,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>317</v>
       </c>
@@ -4496,7 +4525,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>141</v>
       </c>
@@ -4516,7 +4545,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>181</v>
       </c>
@@ -4536,7 +4565,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>211</v>
       </c>
@@ -4556,7 +4585,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>16</v>
       </c>
@@ -4576,7 +4605,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>255</v>
       </c>
@@ -4596,7 +4625,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>378</v>
       </c>
@@ -4616,7 +4645,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>248</v>
       </c>
@@ -4636,7 +4665,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>356</v>
       </c>
@@ -4656,7 +4685,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>287</v>
       </c>
@@ -4676,7 +4705,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>265</v>
       </c>
@@ -4696,7 +4725,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>232</v>
       </c>
@@ -4716,7 +4745,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>275</v>
       </c>
@@ -4736,7 +4765,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>45</v>
       </c>
@@ -4756,7 +4785,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>57</v>
       </c>
@@ -4776,7 +4805,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>217</v>
       </c>
@@ -4796,7 +4825,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>376</v>
       </c>
@@ -4816,7 +4845,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>364</v>
       </c>
@@ -4836,7 +4865,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>386</v>
       </c>
@@ -4856,7 +4885,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="129" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
         <v>125</v>
       </c>
@@ -4876,7 +4905,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>14</v>
       </c>
@@ -4896,7 +4925,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>129</v>
       </c>
@@ -4916,7 +4945,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>313</v>
       </c>
@@ -4936,7 +4965,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>179</v>
       </c>
@@ -4956,7 +4985,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>167</v>
       </c>
@@ -4976,7 +5005,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>261</v>
       </c>
@@ -4996,7 +5025,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>197</v>
       </c>
@@ -5016,7 +5045,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>222</v>
       </c>
@@ -5036,7 +5065,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>205</v>
       </c>
@@ -5056,7 +5085,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>72</v>
       </c>
@@ -5076,7 +5105,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>59</v>
       </c>
@@ -5096,7 +5125,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>95</v>
       </c>
@@ -5116,7 +5145,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>487</v>
       </c>
@@ -5136,7 +5165,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>195</v>
       </c>
@@ -5156,7 +5185,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>153</v>
       </c>
@@ -5176,7 +5205,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>137</v>
       </c>
@@ -5196,7 +5225,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>368</v>
       </c>
@@ -5216,7 +5245,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>163</v>
       </c>
@@ -5236,7 +5265,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>133</v>
       </c>
@@ -5256,7 +5285,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>147</v>
       </c>
@@ -5276,7 +5305,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>145</v>
       </c>
@@ -5296,7 +5325,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>38</v>
       </c>
@@ -5316,7 +5345,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>279</v>
       </c>
@@ -5336,7 +5365,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>157</v>
       </c>
@@ -5356,7 +5385,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>327</v>
       </c>
@@ -5376,7 +5405,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>99</v>
       </c>
@@ -5396,7 +5425,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>105</v>
       </c>
@@ -5416,7 +5445,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>374</v>
       </c>
@@ -5436,7 +5465,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>3</v>
       </c>
@@ -5456,7 +5485,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>74</v>
       </c>
@@ -5476,7 +5505,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>32</v>
       </c>
@@ -5496,7 +5525,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>183</v>
       </c>
@@ -5516,7 +5545,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>352</v>
       </c>
@@ -5536,7 +5565,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>259</v>
       </c>
@@ -5556,7 +5585,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>380</v>
       </c>
@@ -5576,7 +5605,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>24</v>
       </c>
@@ -5596,7 +5625,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>120</v>
       </c>
@@ -5616,7 +5645,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>309</v>
       </c>
@@ -5636,7 +5665,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>193</v>
       </c>
@@ -5656,7 +5685,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>0</v>
       </c>
@@ -5676,7 +5705,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>26</v>
       </c>
@@ -5696,7 +5725,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>159</v>
       </c>
@@ -5716,7 +5745,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>283</v>
       </c>
@@ -5736,7 +5765,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>155</v>
       </c>
@@ -5756,7 +5785,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>382</v>
       </c>
@@ -5776,7 +5805,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>323</v>
       </c>
@@ -5796,7 +5825,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>123</v>
       </c>
@@ -5816,7 +5845,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>171</v>
       </c>
@@ -5836,7 +5865,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>191</v>
       </c>
@@ -5856,7 +5885,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>219</v>
       </c>
@@ -5876,7 +5905,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>263</v>
       </c>
@@ -5896,7 +5925,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>228</v>
       </c>
@@ -5916,7 +5945,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>339</v>
       </c>
@@ -5936,7 +5965,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>135</v>
       </c>
@@ -5956,7 +5985,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>86</v>
       </c>
@@ -5976,7 +6005,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>47</v>
       </c>
@@ -5996,7 +6025,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="186" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
         <v>329</v>
       </c>
@@ -6016,7 +6045,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>68</v>
       </c>
@@ -6036,7 +6065,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>127</v>
       </c>
@@ -6056,7 +6085,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>252</v>
       </c>
@@ -6076,7 +6105,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>175</v>
       </c>
@@ -6096,7 +6125,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>234</v>
       </c>
@@ -6116,7 +6145,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>187</v>
       </c>
@@ -6136,7 +6165,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>293</v>
       </c>
@@ -6156,7 +6185,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>345</v>
       </c>
@@ -6176,7 +6205,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>291</v>
       </c>

--- a/data-raw/WHO_countries_subregions.xlsx
+++ b/data-raw/WHO_countries_subregions.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BrDe394\GitHub\FERG2\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\sciensano.be\fs\11401_LifeChron_FERG_DWH\GitHub\Github_Louise\FERG2\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1C1D61-7B20-4A3A-8719-C4130F062EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29100" yWindow="435" windowWidth="23250" windowHeight="12690"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1872,7 +1873,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1942,7 +1943,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="TableStyleLight1" xfId="1"/>
+    <cellStyle name="TableStyleLight1" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1977,20 +1978,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H195" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:H195"/>
-  <sortState ref="A2:H195">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H195" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:H195" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H195">
     <sortCondition ref="A1:A195"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="ID"/>
-    <tableColumn id="9" name="COUNTRY"/>
-    <tableColumn id="2" name="ISO3"/>
-    <tableColumn id="3" name="ISO2"/>
-    <tableColumn id="7" name="REG1"/>
-    <tableColumn id="4" name="REG2"/>
-    <tableColumn id="8" name="SUB1"/>
-    <tableColumn id="5" name="SUB2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="COUNTRY"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ISO3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="ISO2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="REG1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="REG2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="SUB1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="SUB2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2072,6 +2073,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2107,6 +2125,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2282,19 +2317,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J82" sqref="J82"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.140625" customWidth="1"/>
-    <col min="3" max="8" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.109375" customWidth="1"/>
+    <col min="3" max="8" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>475</v>
       </c>
@@ -2320,7 +2357,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2346,7 +2383,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2372,7 +2409,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2398,7 +2435,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2424,7 +2461,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2450,7 +2487,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2476,7 +2513,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2502,7 +2539,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2528,7 +2565,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2554,7 +2591,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2580,7 +2617,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2606,7 +2643,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2632,7 +2669,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2658,7 +2695,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2684,7 +2721,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2710,7 +2747,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2736,7 +2773,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2762,7 +2799,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2788,7 +2825,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2814,7 +2851,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2840,7 +2877,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2866,7 +2903,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2892,7 +2929,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2918,7 +2955,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2944,7 +2981,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2970,7 +3007,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2996,7 +3033,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3022,7 +3059,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3048,7 +3085,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3074,7 +3111,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3100,7 +3137,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3126,7 +3163,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3152,7 +3189,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3178,7 +3215,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3204,7 +3241,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3230,7 +3267,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3256,7 +3293,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3282,7 +3319,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3308,7 +3345,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3334,7 +3371,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3360,7 +3397,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3386,7 +3423,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3412,7 +3449,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3438,7 +3475,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3464,7 +3501,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3490,7 +3527,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3516,7 +3553,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3542,7 +3579,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3568,7 +3605,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3594,7 +3631,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3620,7 +3657,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3646,7 +3683,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3672,7 +3709,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3698,7 +3735,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3724,7 +3761,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3750,7 +3787,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3776,7 +3813,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3802,7 +3839,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3828,7 +3865,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3854,7 +3891,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3880,7 +3917,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3906,7 +3943,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3932,7 +3969,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3958,7 +3995,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3984,7 +4021,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4010,7 +4047,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4036,7 +4073,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4062,7 +4099,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4088,7 +4125,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4114,7 +4151,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4140,7 +4177,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4166,7 +4203,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4192,7 +4229,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4215,10 +4252,10 @@
         <v>589</v>
       </c>
       <c r="H74" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4244,7 +4281,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4270,7 +4307,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4296,7 +4333,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4322,7 +4359,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4348,7 +4385,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4374,7 +4411,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4400,7 +4437,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4426,7 +4463,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4452,7 +4489,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4478,7 +4515,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4504,7 +4541,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4530,7 +4567,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4556,7 +4593,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4582,7 +4619,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4608,7 +4645,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4634,7 +4671,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4660,7 +4697,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4686,7 +4723,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4712,7 +4749,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4738,7 +4775,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4764,7 +4801,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4790,7 +4827,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4816,7 +4853,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4842,7 +4879,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4868,7 +4905,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4894,7 +4931,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4920,7 +4957,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4946,7 +4983,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4972,7 +5009,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4998,7 +5035,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -5024,7 +5061,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -5050,7 +5087,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -5076,7 +5113,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -5102,7 +5139,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -5128,7 +5165,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -5154,7 +5191,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -5180,7 +5217,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -5206,7 +5243,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5232,7 +5269,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -5258,7 +5295,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5284,7 +5321,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5310,7 +5347,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -5336,7 +5373,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -5362,7 +5399,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -5388,7 +5425,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -5414,7 +5451,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -5440,7 +5477,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5466,7 +5503,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5492,7 +5529,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -5518,7 +5555,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -5544,7 +5581,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -5570,7 +5607,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -5596,7 +5633,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -5622,7 +5659,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="129" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -5648,7 +5685,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -5674,7 +5711,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -5700,7 +5737,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -5726,7 +5763,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -5752,7 +5789,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -5778,7 +5815,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -5804,7 +5841,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -5830,7 +5867,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -5856,7 +5893,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -5882,7 +5919,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -5908,7 +5945,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -5934,7 +5971,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -5960,7 +5997,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -5986,7 +6023,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -6012,7 +6049,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -6038,7 +6075,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -6064,7 +6101,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -6090,7 +6127,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -6116,7 +6153,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -6142,7 +6179,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -6168,7 +6205,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -6194,7 +6231,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -6220,7 +6257,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -6246,7 +6283,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
@@ -6272,7 +6309,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
@@ -6298,7 +6335,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
@@ -6324,7 +6361,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
@@ -6350,7 +6387,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
@@ -6376,7 +6413,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
@@ -6402,7 +6439,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
@@ -6428,7 +6465,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
@@ -6454,7 +6491,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
@@ -6480,7 +6517,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
@@ -6506,7 +6543,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
@@ -6532,7 +6569,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>163</v>
       </c>
@@ -6558,7 +6595,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
@@ -6584,7 +6621,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
@@ -6610,7 +6647,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
@@ -6636,7 +6673,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
@@ -6662,7 +6699,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
@@ -6688,7 +6725,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
@@ -6714,7 +6751,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
@@ -6740,7 +6777,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
@@ -6766,7 +6803,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
@@ -6792,7 +6829,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
@@ -6818,7 +6855,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>174</v>
       </c>
@@ -6844,7 +6881,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>175</v>
       </c>
@@ -6870,7 +6907,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>176</v>
       </c>
@@ -6896,7 +6933,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>177</v>
       </c>
@@ -6922,7 +6959,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
@@ -6948,7 +6985,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
@@ -6974,7 +7011,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
@@ -7000,7 +7037,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
@@ -7026,7 +7063,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
@@ -7052,7 +7089,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>183</v>
       </c>
@@ -7078,7 +7115,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>184</v>
       </c>
@@ -7104,7 +7141,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="186" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>185</v>
       </c>
@@ -7130,7 +7167,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>186</v>
       </c>
@@ -7156,7 +7193,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>187</v>
       </c>
@@ -7182,7 +7219,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>188</v>
       </c>
@@ -7208,7 +7245,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>189</v>
       </c>
@@ -7234,7 +7271,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>190</v>
       </c>
@@ -7260,7 +7297,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>191</v>
       </c>
@@ -7286,7 +7323,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
@@ -7312,7 +7349,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
@@ -7338,7 +7375,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>194</v>
       </c>
